--- a/Data/EC/NIT-9011468230.xlsx
+++ b/Data/EC/NIT-9011468230.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE5AD18-3BEA-43BE-A111-2576D6350A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38454479-25F3-4224-8FD3-AA8D34D53505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C8F807C-F6DE-4BEC-AF19-55E053090B48}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B40DE57-3CD0-4DB8-BEAE-FA39AA9971AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,37 +65,37 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047460494</t>
+  </si>
+  <si>
+    <t>KANDI YOHANA ARRIETA RAMOS</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1047394492</t>
+  </si>
+  <si>
+    <t>FABIO ANDRES GONZALEZ CASSIANI</t>
+  </si>
+  <si>
     <t>1143342135</t>
   </si>
   <si>
     <t>ESTEFANNY BELTRAN SIERRA</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1047460494</t>
-  </si>
-  <si>
-    <t>KANDI YOHANA ARRIETA RAMOS</t>
-  </si>
-  <si>
-    <t>1047394492</t>
-  </si>
-  <si>
-    <t>FABIO ANDRES GONZALEZ CASSIANI</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -139,7 +139,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C78BC62-8805-993D-352E-ECE0A22F4886}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2A05D0-0542-2EEE-E37A-3A5FF79EF6C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,28 +860,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD2BA50-039D-496E-8B84-4DA969D4850A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037F0C68-3172-4748-8850-7BC3EA5BE23E}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -894,7 +894,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -905,7 +905,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -916,7 +916,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -927,8 +927,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
@@ -943,8 +943,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -959,8 +959,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
@@ -975,8 +975,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1038,30 +1038,30 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33128</v>
+        <v>22083</v>
       </c>
       <c r="G16" s="18">
-        <v>828200</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>18771</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
         <v>828116</v>
@@ -1070,41 +1070,41 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33128</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>828200</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
@@ -1116,159 +1116,159 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F20" s="18">
-        <v>33128</v>
+        <v>18771</v>
       </c>
       <c r="G20" s="18">
-        <v>828200</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>33128</v>
+        <v>22086</v>
       </c>
       <c r="G21" s="18">
-        <v>828200</v>
+        <v>737717</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F22" s="18">
         <v>33128</v>
       </c>
       <c r="G22" s="18">
-        <v>828200</v>
+        <v>737717</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F23" s="18">
         <v>33128</v>
       </c>
       <c r="G23" s="18">
-        <v>828200</v>
+        <v>737717</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F24" s="18">
-        <v>33125</v>
+        <v>33128</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F25" s="18">
-        <v>33125</v>
+        <v>33128</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>33128</v>
+        <v>22086</v>
       </c>
       <c r="G26" s="18">
         <v>828200</v>
@@ -1277,18 +1277,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
         <v>33128</v>
@@ -1300,21 +1300,21 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F28" s="18">
-        <v>22086</v>
+        <v>33128</v>
       </c>
       <c r="G28" s="18">
         <v>828200</v>
@@ -1323,44 +1323,44 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F29" s="18">
-        <v>22083</v>
+        <v>33128</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>828200</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D30" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>19</v>
-      </c>
       <c r="F30" s="24">
-        <v>22086</v>
+        <v>33128</v>
       </c>
       <c r="G30" s="24">
         <v>828200</v>
@@ -1369,7 +1369,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="32" t="s">
         <v>29</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="32" t="s">
         <v>28</v>
       </c>

--- a/Data/EC/NIT-9011468230.xlsx
+++ b/Data/EC/NIT-9011468230.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38454479-25F3-4224-8FD3-AA8D34D53505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB3E8310-EC60-474C-981A-5937B7BD248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B40DE57-3CD0-4DB8-BEAE-FA39AA9971AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{040A4E3D-11A7-44AB-82E6-E28067683A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,31 +71,31 @@
     <t>KANDI YOHANA ARRIETA RAMOS</t>
   </si>
   <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1047394492</t>
+  </si>
+  <si>
+    <t>FABIO ANDRES GONZALEZ CASSIANI</t>
+  </si>
+  <si>
+    <t>1143342135</t>
+  </si>
+  <si>
+    <t>ESTEFANNY BELTRAN SIERRA</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
     <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1047394492</t>
-  </si>
-  <si>
-    <t>FABIO ANDRES GONZALEZ CASSIANI</t>
-  </si>
-  <si>
-    <t>1143342135</t>
-  </si>
-  <si>
-    <t>ESTEFANNY BELTRAN SIERRA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -139,7 +139,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,7 +194,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -207,9 +209,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2A05D0-0542-2EEE-E37A-3A5FF79EF6C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8C02E0-E665-1236-2402-4DBCC3456A2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,28 +860,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037F0C68-3172-4748-8850-7BC3EA5BE23E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5286A57-7F18-415C-A020-41A43AF87CFF}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -894,7 +894,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -905,7 +905,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -916,7 +916,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -927,8 +927,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
@@ -943,8 +943,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -959,8 +959,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
@@ -975,8 +975,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>22083</v>
+        <v>18771</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1047,53 +1047,53 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>33128</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>828200</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>33128</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>828200</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
@@ -1116,159 +1116,159 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>18771</v>
+        <v>33128</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>828200</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F21" s="18">
-        <v>22086</v>
+        <v>33128</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>828200</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F22" s="18">
-        <v>33128</v>
+        <v>33125</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F23" s="18">
         <v>33128</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>828200</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F24" s="18">
         <v>33128</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>828200</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>33128</v>
+        <v>33125</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F26" s="18">
-        <v>22086</v>
+        <v>33128</v>
       </c>
       <c r="G26" s="18">
         <v>828200</v>
@@ -1277,18 +1277,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F27" s="18">
         <v>33128</v>
@@ -1300,44 +1300,44 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F28" s="18">
-        <v>33128</v>
+        <v>22083</v>
       </c>
       <c r="G28" s="18">
-        <v>828200</v>
+        <v>828116</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F29" s="18">
-        <v>33128</v>
+        <v>22086</v>
       </c>
       <c r="G29" s="18">
         <v>828200</v>
@@ -1346,21 +1346,21 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="F30" s="24">
-        <v>33128</v>
+        <v>22086</v>
       </c>
       <c r="G30" s="24">
         <v>828200</v>
@@ -1369,7 +1369,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="32" t="s">
         <v>29</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="32" t="s">
         <v>28</v>
       </c>

--- a/Data/EC/NIT-9011468230.xlsx
+++ b/Data/EC/NIT-9011468230.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB3E8310-EC60-474C-981A-5937B7BD248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E14F9CED-2A2F-4E7A-8C18-3CF70B10388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{040A4E3D-11A7-44AB-82E6-E28067683A9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44299943-8F6E-427A-8969-488370A384B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,9 +194,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -209,7 +207,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -403,29 +403,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,19 +444,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8C02E0-E665-1236-2402-4DBCC3456A2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B9FB9A-39BD-6126-5D64-896D884D7ADB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,80 +866,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5286A57-7F18-415C-A020-41A43AF87CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DF8739-3235-4087-9BAD-C3BEA8073CE5}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -943,13 +949,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9011468230</v>
       </c>
@@ -959,13 +965,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>449425</v>
       </c>
@@ -975,8 +981,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -995,7 +1001,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1034,20 +1040,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>18771</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>828116</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1057,20 +1063,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>33128</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>828200</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1080,20 +1086,20 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>33128</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>828200</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1103,20 +1109,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>33125</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>828116</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1126,20 +1132,20 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>33128</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>828200</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1149,20 +1155,20 @@
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>33128</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>828200</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1172,20 +1178,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>33125</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>828116</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1195,20 +1201,20 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>33128</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>828200</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1218,20 +1224,20 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>33128</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>828200</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1241,20 +1247,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>33125</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>828116</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1264,20 +1270,20 @@
       <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>33128</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>828200</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1287,20 +1293,20 @@
       <c r="D27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>33128</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>828200</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1310,20 +1316,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>22083</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>828116</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1333,58 +1339,58 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>22086</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>828200</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="21" t="s">
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="26">
         <v>22086</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="26">
         <v>828200</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="32" t="s">
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="34"/>
       <c r="H35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="32" t="s">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="34"/>
       <c r="H36" s="1" t="s">
         <v>30</v>
       </c>
